--- a/IPs.xlsx
+++ b/IPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meeno\Desktop\Robotic Process Automation\UiPath Robots\Automation Assignments\RPA_Assignment2_IP_Address_to_Location_Converter_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2EF5E3-AE36-488D-83D5-84483AAA3DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AB656-F9AA-4C18-9345-36C9C39A44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1318CEC-1CDC-49D3-B605-A468DFC624B2}"/>
   </bookViews>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15690123-639A-4761-B421-1DBDDB734A55}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +755,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
